--- a/biomes.xlsx
+++ b/biomes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>legend</t>
   </si>
@@ -45,9 +45,6 @@
     <t>temperate grassland</t>
   </si>
   <si>
-    <t>woodland</t>
-  </si>
-  <si>
     <t>temperate rain forest</t>
   </si>
   <si>
@@ -178,6 +175,24 @@
   </si>
   <si>
     <t>badland</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>shrubland</t>
   </si>
 </sst>
 </file>
@@ -200,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,12 +362,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF839E62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF216543"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,6 +387,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF356F35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF737B69"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -423,17 +444,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
@@ -445,16 +467,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF737B69"/>
+      <color rgb="FF98FECD"/>
+      <color rgb="FF356F35"/>
+      <color rgb="FF356F36"/>
+      <color rgb="FF3F8541"/>
+      <color rgb="FF438D45"/>
+      <color rgb="FF2B8156"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF99FFCC"/>
       <color rgb="FF4CC488"/>
-      <color rgb="FFCCCCFF"/>
-      <color rgb="FF99FF99"/>
-      <color rgb="FF184830"/>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FF216543"/>
-      <color rgb="FF333300"/>
-      <color rgb="FF839E62"/>
     </mruColors>
   </colors>
   <extLst>
@@ -755,7 +777,7 @@
   <dimension ref="B1:BF53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,10 +792,10 @@
   <sheetData>
     <row r="1" spans="2:58" x14ac:dyDescent="0.25">
       <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" t="s">
         <v>38</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:58" x14ac:dyDescent="0.25">
@@ -836,14 +858,14 @@
     <row r="4" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>95</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -856,16 +878,16 @@
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="23"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27" t="s">
-        <v>33</v>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="X4" s="23"/>
       <c r="Y4" s="23"/>
       <c r="Z4" s="23"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
@@ -907,7 +929,7 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -925,7 +947,7 @@
       <c r="Z5" s="23"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
@@ -967,7 +989,7 @@
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -1034,16 +1056,16 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
       <c r="AI7">
         <v>80</v>
       </c>
@@ -1086,26 +1108,26 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE8" s="36"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8" s="35"/>
       <c r="AI8">
         <v>75</v>
       </c>
@@ -1134,7 +1156,7 @@
       <c r="BF8" s="19"/>
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -1152,16 +1174,16 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
       <c r="AI9">
         <v>70</v>
       </c>
@@ -1199,7 +1221,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1210,16 +1232,16 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
       <c r="AI10">
         <v>65</v>
       </c>
@@ -1245,8 +1267,8 @@
       <c r="BC10" s="16"/>
       <c r="BD10" s="16"/>
       <c r="BE10" s="16"/>
-      <c r="BF10" s="37" t="s">
-        <v>18</v>
+      <c r="BF10" s="38" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:58" x14ac:dyDescent="0.25">
@@ -1259,7 +1281,7 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1271,13 +1293,13 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AI11">
@@ -1300,24 +1322,24 @@
       <c r="AX11" s="18"/>
       <c r="AY11" s="18"/>
       <c r="AZ11" s="18"/>
-      <c r="BA11" s="34" t="s">
-        <v>44</v>
+      <c r="BA11" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="BB11" s="17"/>
       <c r="BC11" s="16"/>
       <c r="BD11" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE11" s="16"/>
-      <c r="BF11" s="37"/>
+      <c r="BF11" s="38"/>
     </row>
     <row r="12" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12">
         <v>55</v>
@@ -1329,24 +1351,24 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
       <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AH12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12">
         <v>55</v>
@@ -1368,8 +1390,8 @@
       <c r="AX12" s="18"/>
       <c r="AY12" s="18"/>
       <c r="AZ12" s="18"/>
-      <c r="BA12" s="34" t="s">
-        <v>45</v>
+      <c r="BA12" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="BB12" s="17"/>
       <c r="BC12" s="16"/>
@@ -1380,7 +1402,7 @@
     <row r="13" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <v>50</v>
@@ -1397,13 +1419,15 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AI13">
@@ -1416,8 +1440,8 @@
       <c r="AN13" s="18"/>
       <c r="AO13" s="18"/>
       <c r="AP13" s="18"/>
-      <c r="AQ13" s="33" t="s">
-        <v>43</v>
+      <c r="AQ13" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="AR13" s="18"/>
       <c r="AS13" s="18"/>
@@ -1455,13 +1479,13 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AI14">
@@ -1494,7 +1518,7 @@
     <row r="15" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>40</v>
@@ -1511,19 +1535,15 @@
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC15" s="3"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="4"/>
       <c r="AD15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AI15">
@@ -1554,9 +1574,9 @@
       <c r="BF15" s="19"/>
     </row>
     <row r="16" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
+      <c r="B16" s="27"/>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>35</v>
@@ -1569,21 +1589,21 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="4"/>
       <c r="AD16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE16" s="4"/>
       <c r="AI16">
@@ -1616,7 +1636,7 @@
     <row r="17" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J17">
         <v>30</v>
@@ -1635,13 +1655,13 @@
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AI17">
@@ -1674,7 +1694,7 @@
     <row r="18" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18">
         <v>25</v>
@@ -1691,13 +1711,15 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AI18">
@@ -1728,9 +1750,9 @@
       <c r="BF18" s="19"/>
     </row>
     <row r="19" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
+      <c r="B19" s="34"/>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19">
         <v>20</v>
@@ -1742,20 +1764,20 @@
       <c r="O19" s="6"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AI19">
@@ -1786,9 +1808,9 @@
       <c r="BF19" s="19"/>
     </row>
     <row r="20" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
+      <c r="B20" s="35"/>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>15</v>
@@ -1805,13 +1827,13 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AI20">
@@ -1844,7 +1866,7 @@
     <row r="21" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -1862,14 +1884,14 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
       <c r="AI21">
         <v>10</v>
       </c>
@@ -1903,7 +1925,7 @@
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -1911,23 +1933,23 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9" t="s">
+      <c r="S22" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
       <c r="AI22">
         <v>5</v>
       </c>
@@ -1951,7 +1973,7 @@
       <c r="BA22" s="15"/>
       <c r="BB22" s="15"/>
       <c r="BC22" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD22" s="15"/>
       <c r="BE22" s="15"/>
@@ -1960,7 +1982,7 @@
     <row r="23" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1978,14 +2000,14 @@
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
       <c r="AI23">
         <v>0</v>
       </c>
@@ -2016,7 +2038,7 @@
     <row r="24" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24">
         <v>100</v>
@@ -2154,45 +2176,45 @@
     <row r="25" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BE26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:58" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B29" s="25"/>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -2200,29 +2222,29 @@
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="22"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
     </row>
     <row r="31" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
+      <c r="B31" s="37"/>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31">
         <v>95</v>
@@ -2230,29 +2252,29 @@
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
     </row>
     <row r="32" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J32">
         <v>90</v>
@@ -2260,29 +2282,29 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="22"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J33">
         <v>85</v>
@@ -2290,29 +2312,29 @@
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="22"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J34">
         <v>80</v>
@@ -2320,24 +2342,24 @@
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="22"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J35">
@@ -2346,28 +2368,28 @@
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="22"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J36">
         <v>70</v>
@@ -2375,24 +2397,24 @@
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="22"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J37">
@@ -2401,24 +2423,24 @@
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="22"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J38">
@@ -2427,28 +2449,28 @@
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="22"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="I39" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39">
         <v>55</v>
@@ -2456,24 +2478,24 @@
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
       <c r="M39" s="22"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J40">
@@ -2482,26 +2504,26 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="22"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J41">
@@ -2510,24 +2532,24 @@
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="22"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J42">
@@ -2536,24 +2558,24 @@
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="22"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J43">
@@ -2562,24 +2584,24 @@
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="22"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
       <c r="P43" s="24"/>
       <c r="Q43" s="24"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J44">
@@ -2588,24 +2610,24 @@
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="22"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
       <c r="P44" s="24"/>
       <c r="Q44" s="24"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J45">
@@ -2614,24 +2636,24 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="22"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J46">
@@ -2640,24 +2662,24 @@
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="22"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
       <c r="P46" s="24"/>
       <c r="Q46" s="24"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J47">
@@ -2666,24 +2688,24 @@
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="22"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
       <c r="P47" s="24"/>
       <c r="Q47" s="24"/>
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J48">
@@ -2692,24 +2714,24 @@
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="22"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
       <c r="P48" s="24"/>
       <c r="Q48" s="24"/>
       <c r="R48" s="25"/>
       <c r="S48" s="25"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
     </row>
     <row r="49" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J49">
@@ -2718,24 +2740,24 @@
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="22"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-      <c r="AE49" s="29"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
     </row>
     <row r="50" spans="10:31" x14ac:dyDescent="0.25">
       <c r="J50">
@@ -2744,24 +2766,24 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
       <c r="P50" s="24"/>
       <c r="Q50" s="24"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
     </row>
     <row r="51" spans="10:31" x14ac:dyDescent="0.25">
       <c r="K51">
@@ -2830,7 +2852,7 @@
     </row>
     <row r="53" spans="10:31" x14ac:dyDescent="0.25">
       <c r="S53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2844,12 +2866,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>79</v>
+      </c>
+      <c r="D7">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>(C6+C7)/2</f>
+        <v>114.5</v>
+      </c>
+      <c r="D8">
+        <f>(D6+D7)/2</f>
+        <v>122.5</v>
+      </c>
+      <c r="E8">
+        <f>(E6+E7)/2</f>
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>115</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
